--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T55_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T55_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2015370511150554</v>
+        <v>0.1979813930710988</v>
       </c>
       <c r="C2">
-        <v>0.3501553535809984</v>
+        <v>0.3795265156019396</v>
       </c>
       <c r="D2">
-        <v>0.2617601871928103</v>
+        <v>0.2778640158610643</v>
       </c>
       <c r="E2">
-        <v>0.5116250455097076</v>
+        <v>0.5271280829751572</v>
       </c>
       <c r="F2">
-        <v>0.4867637343656181</v>
+        <v>0.5069777247436844</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1979813930710988</v>
+        <v>0.2347256923014825</v>
       </c>
       <c r="C3">
-        <v>0.3795265156019396</v>
+        <v>0.3822201530932461</v>
       </c>
       <c r="D3">
-        <v>0.2778640158610643</v>
+        <v>0.2247519983339054</v>
       </c>
       <c r="E3">
-        <v>0.5271280829751572</v>
+        <v>0.4740801602407608</v>
       </c>
       <c r="F3">
-        <v>0.5069777247436844</v>
+        <v>0.428711832139554</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2347256923014825</v>
+        <v>0.2681184607162052</v>
       </c>
       <c r="C4">
-        <v>0.3822201530932461</v>
+        <v>0.3968952304966916</v>
       </c>
       <c r="D4">
-        <v>0.2247519983339054</v>
+        <v>0.2554487726035262</v>
       </c>
       <c r="E4">
-        <v>0.4740801602407608</v>
+        <v>0.5054194026781385</v>
       </c>
       <c r="F4">
-        <v>0.428711832139554</v>
+        <v>0.4474915096726709</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2681184607162052</v>
+        <v>0.3296070495036373</v>
       </c>
       <c r="C5">
-        <v>0.3968952304966916</v>
+        <v>0.3883960298041425</v>
       </c>
       <c r="D5">
-        <v>0.2554487726035262</v>
+        <v>0.2818320098626162</v>
       </c>
       <c r="E5">
-        <v>0.5054194026781385</v>
+        <v>0.5308785264659103</v>
       </c>
       <c r="F5">
-        <v>0.4474915096726709</v>
+        <v>0.4364748825054373</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3296070495036373</v>
+        <v>0.3168892358128843</v>
       </c>
       <c r="C6">
-        <v>0.3883960298041425</v>
+        <v>0.3761758563838308</v>
       </c>
       <c r="D6">
-        <v>0.2818320098626162</v>
+        <v>0.2060985664200785</v>
       </c>
       <c r="E6">
-        <v>0.5308785264659103</v>
+        <v>0.4539807996161054</v>
       </c>
       <c r="F6">
-        <v>0.4364748825054373</v>
+        <v>0.342668901818269</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3168892358128843</v>
+        <v>0.3050354114201801</v>
       </c>
       <c r="C7">
-        <v>0.3761758563838308</v>
+        <v>0.3134960335622032</v>
       </c>
       <c r="D7">
-        <v>0.2060985664200785</v>
+        <v>0.2324223121793234</v>
       </c>
       <c r="E7">
-        <v>0.4539807996161054</v>
+        <v>0.4821019728017334</v>
       </c>
       <c r="F7">
-        <v>0.342668901818269</v>
+        <v>0.3959768600611978</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3050354114201801</v>
+        <v>0.3287758598977879</v>
       </c>
       <c r="C8">
-        <v>0.3134960335622032</v>
+        <v>0.4033255329523637</v>
       </c>
       <c r="D8">
-        <v>0.2324223121793234</v>
+        <v>0.2534286472417211</v>
       </c>
       <c r="E8">
-        <v>0.4821019728017334</v>
+        <v>0.5034169715471669</v>
       </c>
       <c r="F8">
-        <v>0.3959768600611978</v>
+        <v>0.4075502860334328</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3287758598977879</v>
+        <v>0.3037301248181886</v>
       </c>
       <c r="C9">
-        <v>0.4033255329523637</v>
+        <v>0.4152369558703082</v>
       </c>
       <c r="D9">
-        <v>0.2534286472417211</v>
+        <v>0.3412314012878718</v>
       </c>
       <c r="E9">
-        <v>0.5034169715471669</v>
+        <v>0.5841501530324817</v>
       </c>
       <c r="F9">
-        <v>0.4075502860334328</v>
+        <v>0.5389582370896339</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3037301248181886</v>
+        <v>0.2667014930737632</v>
       </c>
       <c r="C10">
-        <v>0.4152369558703082</v>
+        <v>0.3376616306061401</v>
       </c>
       <c r="D10">
-        <v>0.3412314012878718</v>
+        <v>0.1853174931998413</v>
       </c>
       <c r="E10">
-        <v>0.5841501530324817</v>
+        <v>0.4304851834846831</v>
       </c>
       <c r="F10">
-        <v>0.5389582370896339</v>
+        <v>0.3701693776509343</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2667014930737632</v>
+        <v>0.3157875881341893</v>
       </c>
       <c r="C11">
-        <v>0.3376616306061401</v>
+        <v>0.415763948321914</v>
       </c>
       <c r="D11">
-        <v>0.1853174931998413</v>
+        <v>0.4482400691008893</v>
       </c>
       <c r="E11">
-        <v>0.4304851834846831</v>
+        <v>0.6695073331195778</v>
       </c>
       <c r="F11">
-        <v>0.3701693776509343</v>
+        <v>0.6600362379078902</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T55_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_10_9_matched_error_tables_T55_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1979813930710988</v>
+        <v>0.2015370511150554</v>
       </c>
       <c r="C2">
-        <v>0.3795265156019396</v>
+        <v>0.3501553535809984</v>
       </c>
       <c r="D2">
-        <v>0.2778640158610643</v>
+        <v>0.2617601871928103</v>
       </c>
       <c r="E2">
-        <v>0.5271280829751572</v>
+        <v>0.5116250455097076</v>
       </c>
       <c r="F2">
-        <v>0.5069777247436844</v>
+        <v>0.4867637343656181</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2347256923014825</v>
+        <v>0.1979813930710988</v>
       </c>
       <c r="C3">
-        <v>0.3822201530932461</v>
+        <v>0.3795265156019396</v>
       </c>
       <c r="D3">
-        <v>0.2247519983339054</v>
+        <v>0.2778640158610643</v>
       </c>
       <c r="E3">
-        <v>0.4740801602407608</v>
+        <v>0.5271280829751572</v>
       </c>
       <c r="F3">
-        <v>0.428711832139554</v>
+        <v>0.5069777247436844</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2681184607162052</v>
+        <v>0.2347256923014825</v>
       </c>
       <c r="C4">
-        <v>0.3968952304966916</v>
+        <v>0.3822201530932461</v>
       </c>
       <c r="D4">
-        <v>0.2554487726035262</v>
+        <v>0.2247519983339054</v>
       </c>
       <c r="E4">
-        <v>0.5054194026781385</v>
+        <v>0.4740801602407608</v>
       </c>
       <c r="F4">
-        <v>0.4474915096726709</v>
+        <v>0.428711832139554</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3296070495036373</v>
+        <v>0.2681184607162052</v>
       </c>
       <c r="C5">
-        <v>0.3883960298041425</v>
+        <v>0.3968952304966916</v>
       </c>
       <c r="D5">
-        <v>0.2818320098626162</v>
+        <v>0.2554487726035262</v>
       </c>
       <c r="E5">
-        <v>0.5308785264659103</v>
+        <v>0.5054194026781385</v>
       </c>
       <c r="F5">
-        <v>0.4364748825054373</v>
+        <v>0.4474915096726709</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3168892358128843</v>
+        <v>0.3296070495036373</v>
       </c>
       <c r="C6">
-        <v>0.3761758563838308</v>
+        <v>0.3883960298041425</v>
       </c>
       <c r="D6">
-        <v>0.2060985664200785</v>
+        <v>0.2818320098626162</v>
       </c>
       <c r="E6">
-        <v>0.4539807996161054</v>
+        <v>0.5308785264659103</v>
       </c>
       <c r="F6">
-        <v>0.342668901818269</v>
+        <v>0.4364748825054373</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3050354114201801</v>
+        <v>0.3168892358128843</v>
       </c>
       <c r="C7">
-        <v>0.3134960335622032</v>
+        <v>0.3761758563838308</v>
       </c>
       <c r="D7">
-        <v>0.2324223121793234</v>
+        <v>0.2060985664200785</v>
       </c>
       <c r="E7">
-        <v>0.4821019728017334</v>
+        <v>0.4539807996161054</v>
       </c>
       <c r="F7">
-        <v>0.3959768600611978</v>
+        <v>0.342668901818269</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3287758598977879</v>
+        <v>0.3050354114201801</v>
       </c>
       <c r="C8">
-        <v>0.4033255329523637</v>
+        <v>0.3134960335622032</v>
       </c>
       <c r="D8">
-        <v>0.2534286472417211</v>
+        <v>0.2324223121793234</v>
       </c>
       <c r="E8">
-        <v>0.5034169715471669</v>
+        <v>0.4821019728017334</v>
       </c>
       <c r="F8">
-        <v>0.4075502860334328</v>
+        <v>0.3959768600611978</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3037301248181886</v>
+        <v>0.3287758598977879</v>
       </c>
       <c r="C9">
-        <v>0.4152369558703082</v>
+        <v>0.4033255329523637</v>
       </c>
       <c r="D9">
-        <v>0.3412314012878718</v>
+        <v>0.2534286472417211</v>
       </c>
       <c r="E9">
-        <v>0.5841501530324817</v>
+        <v>0.5034169715471669</v>
       </c>
       <c r="F9">
-        <v>0.5389582370896339</v>
+        <v>0.4075502860334328</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2667014930737632</v>
+        <v>0.3037301248181886</v>
       </c>
       <c r="C10">
-        <v>0.3376616306061401</v>
+        <v>0.4152369558703082</v>
       </c>
       <c r="D10">
-        <v>0.1853174931998413</v>
+        <v>0.3412314012878718</v>
       </c>
       <c r="E10">
-        <v>0.4304851834846831</v>
+        <v>0.5841501530324817</v>
       </c>
       <c r="F10">
-        <v>0.3701693776509343</v>
+        <v>0.5389582370896339</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3157875881341893</v>
+        <v>0.2667014930737632</v>
       </c>
       <c r="C11">
-        <v>0.415763948321914</v>
+        <v>0.3376616306061401</v>
       </c>
       <c r="D11">
-        <v>0.4482400691008893</v>
+        <v>0.1853174931998413</v>
       </c>
       <c r="E11">
-        <v>0.6695073331195778</v>
+        <v>0.4304851834846831</v>
       </c>
       <c r="F11">
-        <v>0.6600362379078902</v>
+        <v>0.3701693776509343</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
